--- a/Requisitos/Requisitos e Casos de Uso - Unità Medica.xlsx
+++ b/Requisitos/Requisitos e Casos de Uso - Unità Medica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.henrique\Documents\unita-medica\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA7CAE6-2E0F-4153-838D-63E42D29AF9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5E2DE4-E790-4F20-9220-717611A4BA3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>REQUISITOS E CASOS DE USO</t>
   </si>
@@ -48,9 +48,6 @@
     <t xml:space="preserve">Cadastro de Usuarios (Pacientes e Médicos) </t>
   </si>
   <si>
-    <t>Cadastrar Usuarios</t>
-  </si>
-  <si>
     <t>Paciente</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>Responder aos feedbacks dos pacientes</t>
   </si>
   <si>
-    <t>responder feedbacks</t>
-  </si>
-  <si>
     <t>Efetuar Login</t>
   </si>
   <si>
@@ -127,6 +121,15 @@
   </si>
   <si>
     <t>Exibe tela inicial do sistema</t>
+  </si>
+  <si>
+    <t>Cadastrar Usuario</t>
+  </si>
+  <si>
+    <t>Cadastrar Médico</t>
+  </si>
+  <si>
+    <t>Responder feedbacks</t>
   </si>
 </sst>
 </file>
@@ -178,11 +181,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -199,6 +199,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,287 +540,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="6">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C15" s="6">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="7">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="7">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="7">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="8">
-        <v>13</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:E2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
